--- a/src/main/webapp/downloadFile/입고등록 양식.xlsx
+++ b/src/main/webapp/downloadFile/입고등록 양식.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deer\intelliJ-workspace\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA29E2-973F-4B33-BE89-F28701B34D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76131270-7EA5-4A65-8871-2540AC179983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
   </bookViews>
   <sheets>
     <sheet name="입고등록" sheetId="1" r:id="rId1"/>
     <sheet name="업체코드" sheetId="2" r:id="rId2"/>
-    <sheet name="입고형태 코드" sheetId="3" r:id="rId3"/>
-    <sheet name="입고창고 코드" sheetId="4" r:id="rId4"/>
+    <sheet name="품번목록" sheetId="5" r:id="rId3"/>
+    <sheet name="입고형태 코드" sheetId="3" r:id="rId4"/>
+    <sheet name="입고창고 코드" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex)나무파레트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 입고형태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,7 +153,24 @@
   </si>
   <si>
     <t>* 필수 정보를 모두 입력해주세요. 
-* 업체코드와 업체명이 다를 시 업체 코드 기준으로 등록됩니다.</t>
+* 업체코드와 업체명이 다를 시 업체 코드 기준으로 등록됩니다.
+* 품번과 품명이 다를 시 품번 기준으로 등록됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품번 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 품번목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +182,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +286,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -391,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,9 +435,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,20 +480,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -789,115 +820,115 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="13" customWidth="1"/>
-    <col min="7" max="9" width="21.25" style="14" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="16" customWidth="1"/>
+    <col min="1" max="2" width="16.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="12" customWidth="1"/>
+    <col min="7" max="9" width="21.25" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="15" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="K3" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -911,15 +942,15 @@
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="17"/>
+      <c r="J6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -943,6 +974,8 @@
     <hyperlink ref="J5" location="'입고창고 코드'!A1" display="ex) 코드목록" xr:uid="{26AD4B25-E0F1-4B20-B07C-B9F56EEED074}"/>
     <hyperlink ref="A5" location="업체코드!A1" display="ex)536" xr:uid="{04B59DDF-726F-441F-B782-8D74625B1410}"/>
     <hyperlink ref="B5" location="업체코드!A1" display="ex)536" xr:uid="{DC0C92E3-BF69-4013-BF9A-A2209D396108}"/>
+    <hyperlink ref="C5" location="품번목록!A1" display="ex)" xr:uid="{B9CCE079-6909-40A8-A141-EF12B98D8B7A}"/>
+    <hyperlink ref="D5" location="품번목록!A1" display="ex)" xr:uid="{D04DFBF5-F0B3-43D0-A383-DC83EC4AC14F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -965,20 +998,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -994,6 +1027,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0445E-A01F-4108-BA90-6DB650E080CF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="입고등록!A1" display="돌아가기" xr:uid="{47C05170-E7A4-4EEB-8079-4A0BCE22C954}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643EB1EC-DC32-4A83-82C5-BB550263BC32}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1008,20 +1084,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D1398-21C4-40CA-BF5A-3E7FB8775A86}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1051,20 +1127,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/downloadFile/입고등록 양식.xlsx
+++ b/src/main/webapp/downloadFile/입고등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deer\intelliJ-workspace\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij-workspace\git\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76131270-7EA5-4A65-8871-2540AC179983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18323FEB-7C65-4C0C-9613-61ECDE595633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
+    <workbookView xWindow="5970" yWindow="540" windowWidth="21600" windowHeight="11385" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
   </bookViews>
   <sheets>
     <sheet name="입고등록" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,19 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입고중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ex) 5000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ex) 50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,6 +463,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,12 +491,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -667,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -809,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -817,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73636589-33A7-4360-B47D-FDF8211FC1EB}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -830,148 +822,138 @@
     <col min="4" max="4" width="18.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="11" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="12" customWidth="1"/>
-    <col min="7" max="9" width="21.25" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="14" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="21.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="14" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" location="'입고형태 코드'!A1" display="ex) 코드목록" xr:uid="{B7E7773D-9015-4AAB-ADE2-78DE5543FBE8}"/>
-    <hyperlink ref="J5" location="'입고창고 코드'!A1" display="ex) 코드목록" xr:uid="{26AD4B25-E0F1-4B20-B07C-B9F56EEED074}"/>
+    <hyperlink ref="I5" location="'입고창고 코드'!A1" display="ex) 코드목록" xr:uid="{26AD4B25-E0F1-4B20-B07C-B9F56EEED074}"/>
     <hyperlink ref="A5" location="업체코드!A1" display="ex)536" xr:uid="{04B59DDF-726F-441F-B782-8D74625B1410}"/>
     <hyperlink ref="B5" location="업체코드!A1" display="ex)536" xr:uid="{DC0C92E3-BF69-4013-BF9A-A2209D396108}"/>
     <hyperlink ref="C5" location="품번목록!A1" display="ex)" xr:uid="{B9CCE079-6909-40A8-A141-EF12B98D8B7A}"/>
@@ -998,10 +980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1011,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1041,20 +1023,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1097,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1127,10 +1109,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1140,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
